--- a/input/images/tables/vsacname-fhiruri-map.xlsx
+++ b/input/images/tables/vsacname-fhiruri-map.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="vsacname-fhiruri-map.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vsacname-fhiruri-map.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1069,6 +1069,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/vsacname-fhiruri-map.xlsx
+++ b/input/images/tables/vsacname-fhiruri-map.xlsx
@@ -543,528 +543,660 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CDCNHSN</t>
+          <t>AllergyIntoleranceClinicalStatusCodes</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.cdc.gov/nhsn/cdaportal/terminology/codesystem/cdcnhsn.html</t>
+          <t>http://terminology.hl7.org/CodeSystem/allergyintolerance-clinical</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CDCREC</t>
+          <t>AllergyIntoleranceVerificationStatus</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>urn:oid:2.16.840.1.113883.6.238</t>
+          <t>http://terminology.hl7.org/CodeSystem/allergyintolerance-verification</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CDT</t>
+          <t>CDCNHSN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.ada.org/cdt</t>
+          <t>https://www.cdc.gov/nhsn/cdaportal/terminology/codesystem/cdcnhsn.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>CDCREC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.ama-assn.org/go/cpt</t>
+          <t>urn:oid:2.16.840.1.113883.6.238</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>CDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/sid/cvx</t>
+          <t>http://www.ada.org/cdt</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Confidentiality</t>
+          <t>CPT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-Confidentiality</t>
+          <t>http://www.ama-assn.org/go/cpt</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DataAbsentReason</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/data-absent-reason</t>
+          <t>http://hl7.org/fhir/sid/cvx</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DischargeDisposition</t>
+          <t>ConditionClinicalStatusCodes</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v2-0112</t>
+          <t>http://terminology.hl7.org/CodeSystem/condition-clinical</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EntityNamePartQualifier</t>
+          <t>ConditionVerificationStatus</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-EntityNamePartQualifier</t>
+          <t>http://terminology.hl7.org/CodeSystem/condition-ver-status</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EntityNameUse</t>
+          <t>Confidentiality</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-EntityNameUse</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-Confidentiality</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EventTiming</t>
+          <t>DataAbsentReason</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/event-timing</t>
+          <t>http://terminology.hl7.org/CodeSystem/data-absent-reason</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HCPCS</t>
+          <t>DiagnosisRole</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.cms.gov/Medicare/Coding/HCPCSReleaseCodeSets</t>
+          <t>http://terminology.hl7.org/CodeSystem/diagnosis-role</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HSLOC</t>
+          <t>DischargeDisposition</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.cdc.gov/nhsn/cdaportal/terminology/codesystem/hsloc.html</t>
+          <t>http://terminology.hl7.org/CodeSystem/v2-0112</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HealthCareProviderTaxonomy</t>
+          <t>EntityNamePartQualifier</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://nucc.org/provider-taxonomy</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-EntityNamePartQualifier</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ICD10CM</t>
+          <t>EntityNameUse</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/sid/icd-10-cm</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-EntityNameUse</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ICD10PCS</t>
+          <t>EventTiming</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.cms.gov/Medicare/Coding/ICD10</t>
+          <t>http://hl7.org/fhir/event-timing</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ICD9CM</t>
+          <t>ExampleDiagnosisTypeCodes</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/sid/icd-9-cm</t>
+          <t>http://terminology.hl7.org/CodeSystem/ex-diagnosistype</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LOINC</t>
+          <t>ExampleProcedureTypeCodes</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://loinc.org</t>
+          <t>http://terminology.hl7.org/CodeSystem/ex-procedure-type</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LanguageAbilityMode</t>
+          <t>HCPCS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-LanguageAbilityMode</t>
+          <t>http://www.cms.gov/Medicare/Coding/HCPCSReleaseCodeSets</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LanguageAbilityProficiency</t>
+          <t>HSLOC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-LanguageAbilityProficiency</t>
+          <t>https://www.cdc.gov/nhsn/cdaportal/terminology/codesystem/hsloc.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LivingArrangement</t>
+          <t>HealthCareProviderTaxonomy</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-LivingArrangement</t>
+          <t>http://nucc.org/provider-taxonomy</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MED-RT</t>
+          <t>ICD10CM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.nlm.nih.gov/research/umls/MED-RT</t>
+          <t>http://hl7.org/fhir/sid/icd-10-cm</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MaritalStatus</t>
+          <t>ICD10PCS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-MaritalStatus</t>
+          <t>http://www.cms.gov/Medicare/Coding/ICD10</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MediaType</t>
+          <t>ICD9CM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-mediaType</t>
+          <t>http://hl7.org/fhir/sid/icd-9-cm</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NCI</t>
+          <t>LOINC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl</t>
+          <t>http://loinc.org</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NDFRT</t>
+          <t>LanguageAbilityMode</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://hl7.org/fhir/ndfrt</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-LanguageAbilityMode</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NullFlavor</t>
+          <t>LanguageAbilityProficiency</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-NullFlavor</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-LanguageAbilityProficiency</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ObservationInterpretation</t>
+          <t>LivingArrangement</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-LivingArrangement</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ObservationValue</t>
+          <t>MED-RT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-ObservationValue</t>
+          <t>http://www.nlm.nih.gov/research/umls/MED-RT</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ParticipationFunction</t>
+          <t>MaritalStatus</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-ParticipationFunction</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-MaritalStatus</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ParticipationMode</t>
+          <t>MediaType</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-ParticipationMode</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-mediaType</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ParticipationType</t>
+          <t>MedicationRequestCategoryCodes</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-ParticipationType</t>
+          <t>http://terminology.hl7.org/CodeSystem/medicationrequest-category</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PresentOnAdmission</t>
+          <t>NCI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/HospitalAcqCond/Coding</t>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RXNORM</t>
+          <t>NDFRT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.nlm.nih.gov/research/umls/rxnorm</t>
+          <t>http://hl7.org/fhir/ndfrt</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ReligiousAffiliation</t>
+          <t>NullFlavor</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-ReligiousAffiliation</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-NullFlavor</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RoleClass</t>
+          <t>ObservationCategoryCodes</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-RoleClass</t>
+          <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RoleCode</t>
+          <t>ObservationInterpretation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-RoleCode</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RoleStatus</t>
+          <t>ObservationValue</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-RoleStatus</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-ObservationValue</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SNOMEDCT</t>
+          <t>ParticipationFunction</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://snomed.info/sct</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-ParticipationFunction</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOP</t>
+          <t>ParticipationMode</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://nahdo.org/sopt</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-ParticipationMode</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TimingEvent</t>
+          <t>ParticipationType</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://terminology.hl7.org/CodeSystem/v3-TimingEvent</t>
+          <t>http://terminology.hl7.org/CodeSystem/v3-ParticipationType</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>UCUM</t>
+          <t>PresentOnAdmission</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://unitsofmeasure.org</t>
+          <t>https://www.cms.gov/Medicare/Medicare-Fee-for-Service-Payment/HospitalAcqCond/Coding</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UMLS</t>
+          <t>RXNORM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.nlm.nih.gov/research/umls</t>
+          <t>http://www.nlm.nih.gov/research/umls/rxnorm</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>ReligiousAffiliation</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/v3-ReligiousAffiliation</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RoleClass</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/v3-RoleClass</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>RoleCode</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/v3-RoleCode</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RoleStatus</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/v3-RoleStatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SNOMEDCT</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>http://snomed.info/sct</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOPT</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://nahdo.org/sopt</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TaskCode</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/CodeSystem/task-code</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TimingEvent</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>http://terminology.hl7.org/CodeSystem/v3-TimingEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>UCUM</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>http://unitsofmeasure.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>UMLS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>http://www.nlm.nih.gov/research/umls</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>UNII</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>http://fdasis.nlm.nih.gov</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>USCoreConditionCategoryExtensionCodes</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>http://hl7.org/fhir/us/core/CodeSystem/condition-category</t>
         </is>
       </c>
     </row>
